--- a/用例数据/沪港/普通交易/T日/测试结果.xlsx
+++ b/用例数据/沪港/普通交易/T日/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="todaytraderslt" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7861" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7861" uniqueCount="771">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -2408,6 +2408,14 @@
   </si>
   <si>
     <t>MAVGREPOAMT</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2792,53 +2800,53 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.75" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2978,7 +2986,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>708</v>
       </c>
@@ -3094,7 +3102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>708</v>
       </c>
@@ -3210,7 +3218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>708</v>
       </c>
@@ -3326,7 +3334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>708</v>
       </c>
@@ -3442,7 +3450,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>708</v>
       </c>
@@ -3558,7 +3566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>708</v>
       </c>
@@ -3674,7 +3682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>708</v>
       </c>
@@ -3790,7 +3798,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>708</v>
       </c>
@@ -3906,7 +3914,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>708</v>
       </c>
@@ -4022,7 +4030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>708</v>
       </c>
@@ -4138,7 +4146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>708</v>
       </c>
@@ -4254,7 +4262,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>708</v>
       </c>
@@ -4370,7 +4378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>708</v>
       </c>
@@ -4486,7 +4494,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>708</v>
       </c>
@@ -4602,7 +4610,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>708</v>
       </c>
@@ -4718,7 +4726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>708</v>
       </c>
@@ -4834,25 +4842,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4868,131 +4876,131 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="26" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.5" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.5" bestFit="1" customWidth="1"/>
     <col min="64" max="65" width="15" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.5" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="15" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="98" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="85" max="86" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="12.75" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="15" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="106" max="108" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="108" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.5" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="15" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="115" max="116" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="118" max="119" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="118" max="119" width="12.75" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="15" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="17.25" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="15" bestFit="1" customWidth="1"/>
-    <col min="124" max="125" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="130" max="131" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="130" max="131" width="13.875" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="15" bestFit="1" customWidth="1"/>
-    <col min="133" max="134" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="133" max="134" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.75" bestFit="1" customWidth="1"/>
     <col min="136" max="137" width="15" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
@@ -5414,7 +5422,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>286</v>
       </c>
@@ -5803,7 +5811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>286</v>
       </c>
@@ -6192,7 +6200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>276</v>
       </c>
@@ -6581,7 +6589,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>276</v>
       </c>
@@ -6970,7 +6978,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>276</v>
       </c>
@@ -7359,7 +7367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>276</v>
       </c>
@@ -7748,7 +7756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>286</v>
       </c>
@@ -8137,7 +8145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>286</v>
       </c>
@@ -8526,7 +8534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>276</v>
       </c>
@@ -8915,7 +8923,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>276</v>
       </c>
@@ -9304,7 +9312,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>256</v>
       </c>
@@ -9687,7 +9695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>286</v>
       </c>
@@ -10076,7 +10084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>286</v>
       </c>
@@ -10465,7 +10473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>286</v>
       </c>
@@ -10854,7 +10862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>256</v>
       </c>
@@ -11243,7 +11251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>276</v>
       </c>
@@ -11632,19 +11640,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11655,108 +11663,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.375" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="15" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="15" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="15" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.25" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="15" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="81" max="82" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="92" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.75" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="15" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
@@ -12067,7 +12075,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>256</v>
       </c>
@@ -12225,7 +12233,7 @@
         <v>44</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>56</v>
@@ -12327,7 +12335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>256</v>
       </c>
@@ -12485,7 +12493,7 @@
         <v>44</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>56</v>
@@ -12593,7 +12601,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>276</v>
       </c>
@@ -12751,7 +12759,7 @@
         <v>44</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>56</v>
@@ -12859,7 +12867,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>286</v>
       </c>
@@ -13017,7 +13025,7 @@
         <v>44</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>56</v>
@@ -13125,7 +13133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>286</v>
       </c>
@@ -13283,7 +13291,7 @@
         <v>44</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>56</v>
@@ -13391,7 +13399,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>286</v>
       </c>
@@ -13549,7 +13557,7 @@
         <v>44</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>56</v>
@@ -13657,7 +13665,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>276</v>
       </c>
@@ -13815,7 +13823,7 @@
         <v>44</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>56</v>
@@ -13923,7 +13931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>276</v>
       </c>
@@ -14081,7 +14089,7 @@
         <v>44</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>56</v>
@@ -14189,7 +14197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>276</v>
       </c>
@@ -14347,7 +14355,7 @@
         <v>44</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>56</v>
@@ -14455,7 +14463,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>286</v>
       </c>
@@ -14613,7 +14621,7 @@
         <v>44</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>56</v>
@@ -14721,7 +14729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>276</v>
       </c>
@@ -14879,7 +14887,7 @@
         <v>44</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG12" s="1" t="s">
         <v>56</v>
@@ -14987,7 +14995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>286</v>
       </c>
@@ -15145,7 +15153,7 @@
         <v>44</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG13" s="1" t="s">
         <v>56</v>
@@ -15253,7 +15261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>276</v>
       </c>
@@ -15411,7 +15419,7 @@
         <v>44</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG14" s="1" t="s">
         <v>56</v>
@@ -15519,7 +15527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>286</v>
       </c>
@@ -15677,7 +15685,7 @@
         <v>44</v>
       </c>
       <c r="BF15" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG15" s="1" t="s">
         <v>56</v>
@@ -15785,7 +15793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>286</v>
       </c>
@@ -15943,7 +15951,7 @@
         <v>44</v>
       </c>
       <c r="BF16" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG16" s="1" t="s">
         <v>56</v>
@@ -16051,7 +16059,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>276</v>
       </c>
@@ -16209,7 +16217,7 @@
         <v>44</v>
       </c>
       <c r="BF17" s="1" t="s">
-        <v>53</v>
+        <v>770</v>
       </c>
       <c r="BG17" s="1" t="s">
         <v>56</v>
@@ -16317,32 +16325,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16352,110 +16360,110 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY28"/>
+  <dimension ref="A1:CY24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.375" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="15" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="15" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="15" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.25" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="15" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="81" max="82" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="92" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.75" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="15" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
@@ -16766,7 +16774,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>256</v>
       </c>
@@ -16924,7 +16932,7 @@
         <v>44</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>56</v>
@@ -17026,7 +17034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>256</v>
       </c>
@@ -17184,7 +17192,7 @@
         <v>44</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>56</v>
@@ -17292,7 +17300,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>276</v>
       </c>
@@ -17450,7 +17458,7 @@
         <v>44</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>56</v>
@@ -17558,7 +17566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>286</v>
       </c>
@@ -17716,7 +17724,7 @@
         <v>44</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>56</v>
@@ -17824,7 +17832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>286</v>
       </c>
@@ -17982,7 +17990,7 @@
         <v>44</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>56</v>
@@ -18090,7 +18098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>286</v>
       </c>
@@ -18248,7 +18256,7 @@
         <v>44</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>56</v>
@@ -18356,7 +18364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>276</v>
       </c>
@@ -18514,7 +18522,7 @@
         <v>44</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>56</v>
@@ -18622,7 +18630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>276</v>
       </c>
@@ -18780,7 +18788,7 @@
         <v>44</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>56</v>
@@ -18888,7 +18896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>276</v>
       </c>
@@ -19046,7 +19054,7 @@
         <v>44</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>56</v>
@@ -19154,7 +19162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>286</v>
       </c>
@@ -19312,7 +19320,7 @@
         <v>44</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>56</v>
@@ -19420,7 +19428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>276</v>
       </c>
@@ -19578,7 +19586,7 @@
         <v>44</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG12" s="1" t="s">
         <v>56</v>
@@ -19686,7 +19694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>286</v>
       </c>
@@ -19844,7 +19852,7 @@
         <v>44</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG13" s="1" t="s">
         <v>56</v>
@@ -19952,7 +19960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>276</v>
       </c>
@@ -20110,7 +20118,7 @@
         <v>44</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG14" s="1" t="s">
         <v>56</v>
@@ -20218,7 +20226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>286</v>
       </c>
@@ -20376,7 +20384,7 @@
         <v>44</v>
       </c>
       <c r="BF15" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG15" s="1" t="s">
         <v>56</v>
@@ -20484,7 +20492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>286</v>
       </c>
@@ -20642,7 +20650,7 @@
         <v>44</v>
       </c>
       <c r="BF16" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG16" s="1" t="s">
         <v>56</v>
@@ -20750,7 +20758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>276</v>
       </c>
@@ -20908,7 +20916,7 @@
         <v>44</v>
       </c>
       <c r="BF17" s="1" t="s">
-        <v>53</v>
+        <v>769</v>
       </c>
       <c r="BG17" s="1" t="s">
         <v>56</v>
@@ -21016,17 +21024,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21037,93 +21041,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="BR20" sqref="BR20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.25" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="26" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -21386,7 +21390,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="2" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -21649,7 +21653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -21912,7 +21916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -22175,7 +22179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -22438,7 +22442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -22701,7 +22705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -22964,7 +22968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -23227,7 +23231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -23490,7 +23494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -23753,7 +23757,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -24016,7 +24020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -24279,7 +24283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -24542,7 +24546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -24805,7 +24809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -25068,25 +25072,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25102,150 +25106,150 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="15" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="15" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.125" bestFit="1" customWidth="1"/>
     <col min="65" max="66" width="15" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="15" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.375" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="15" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="18.375" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="26" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="103" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="19.375" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="26" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="115" max="116" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="17.25" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="15" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="23.75" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="26" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="18.375" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="15" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.875" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.375" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="15" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="19.375" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="15" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="18.375" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="15" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
@@ -25691,7 +25695,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>256</v>
       </c>
@@ -26104,7 +26108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>337</v>
       </c>
@@ -26496,7 +26500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>276</v>
       </c>
@@ -26909,7 +26913,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>286</v>
       </c>
@@ -27301,17 +27305,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
